--- a/Input Data.xlsx
+++ b/Input Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reece\Documents\COMP3217CW2-20202021\CPS-Smart-Energy-Scheduling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3135E7BE-925B-4114-884C-D5A30782CACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC14E5A-3360-4F56-A41B-5C73F676671A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21630" yWindow="7950" windowWidth="28800" windowHeight="15435" firstSheet="2" activeTab="3" xr2:uid="{DE4D9E89-ED3E-9F4F-B454-34A6DA40E3CF}"/>
+    <workbookView xWindow="0" yWindow="5565" windowWidth="28800" windowHeight="15435" firstSheet="2" activeTab="3" xr2:uid="{DE4D9E89-ED3E-9F4F-B454-34A6DA40E3CF}"/>
   </bookViews>
   <sheets>
     <sheet name="User &amp; Task ID" sheetId="1" r:id="rId1"/>
@@ -302,6 +302,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -357,7 +360,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -365,6 +368,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3003,9 +3009,6 @@
           <cell r="B18">
             <v>5.883769</v>
           </cell>
-          <cell r="E18" t="str">
-            <v xml:space="preserve">PAR </v>
-          </cell>
         </row>
         <row r="19">
           <cell r="A19">
@@ -3013,9 +3016,6 @@
           </cell>
           <cell r="B19">
             <v>6.3292630000000001</v>
-          </cell>
-          <cell r="E19">
-            <v>1.3291280000000001</v>
           </cell>
         </row>
         <row r="20">
@@ -4713,7 +4713,7 @@
   <dimension ref="B2:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C12" sqref="B3:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4734,7 +4734,7 @@
       <c r="B3" t="s">
         <v>60</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>0.789333333333333</v>
       </c>
     </row>
@@ -4742,7 +4742,7 @@
       <c r="B4" t="s">
         <v>61</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>0.94099999999999995</v>
       </c>
     </row>
@@ -4750,7 +4750,7 @@
       <c r="B5" t="s">
         <v>62</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>0.94</v>
       </c>
     </row>
@@ -4758,7 +4758,7 @@
       <c r="B6" t="s">
         <v>63</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>0.97733333333333305</v>
       </c>
     </row>
@@ -4766,7 +4766,7 @@
       <c r="B7" t="s">
         <v>64</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>0.77133333333333298</v>
       </c>
     </row>
@@ -4774,7 +4774,7 @@
       <c r="B8" t="s">
         <v>65</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>0.73733333333333295</v>
       </c>
     </row>
@@ -4782,7 +4782,7 @@
       <c r="B9" t="s">
         <v>66</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>0.78900000000000003</v>
       </c>
     </row>
@@ -4790,7 +4790,7 @@
       <c r="B10" t="s">
         <v>67</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>0.92400000000000004</v>
       </c>
     </row>
@@ -4798,7 +4798,7 @@
       <c r="B11" t="s">
         <v>68</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>0.94799999999999995</v>
       </c>
     </row>
@@ -4806,7 +4806,7 @@
       <c r="B12" t="s">
         <v>69</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>0.94899999999999995</v>
       </c>
     </row>

--- a/Input Data.xlsx
+++ b/Input Data.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reece\Documents\COMP3217CW2-20202021\CPS-Smart-Energy-Scheduling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC14E5A-3360-4F56-A41B-5C73F676671A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A8D304-FE5B-4897-A232-000685F188E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5565" windowWidth="28800" windowHeight="15435" firstSheet="2" activeTab="3" xr2:uid="{DE4D9E89-ED3E-9F4F-B454-34A6DA40E3CF}"/>
+    <workbookView xWindow="21480" yWindow="7470" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{DE4D9E89-ED3E-9F4F-B454-34A6DA40E3CF}"/>
   </bookViews>
   <sheets>
     <sheet name="User &amp; Task ID" sheetId="1" r:id="rId1"/>
-    <sheet name="NormalGuidelinePricing" sheetId="2" r:id="rId2"/>
-    <sheet name="AbnormalGuidelinePricing" sheetId="3" r:id="rId3"/>
+    <sheet name="Statistical Classifcation" sheetId="7" r:id="rId2"/>
+    <sheet name="Both curves" sheetId="3" r:id="rId3"/>
     <sheet name="Machine Learning Strategies" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="NormalGuidelinePricing" sheetId="2" r:id="rId5"/>
+    <sheet name="AbnormalGuidelinePricing" sheetId="6" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">NormalGuidelinePricing!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">NormalGuidelinePricing!#REF!</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
   <si>
     <t>user1_task1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,6 +297,42 @@
   </si>
   <si>
     <t>QDA</t>
+  </si>
+  <si>
+    <t>Normal Curve (PAR: 1.323)</t>
+  </si>
+  <si>
+    <t>Abnormal Curve (PAR: 1.329)</t>
+  </si>
+  <si>
+    <t>This shows the features extracted from the training dataset</t>
+  </si>
+  <si>
+    <t>Abnormal Curves</t>
+  </si>
+  <si>
+    <t>Normal Curves</t>
+  </si>
+  <si>
+    <t>Average PAR</t>
+  </si>
+  <si>
+    <t>Max Unit Cost</t>
+  </si>
+  <si>
+    <t>Min Unit Cost</t>
+  </si>
+  <si>
+    <t>Number of Occurrences less than 3</t>
+  </si>
+  <si>
+    <t>Average Unit Cost (hours 0-8 inclusive)</t>
+  </si>
+  <si>
+    <t>Average Unit Cost (hours 9-23 inclusive)</t>
+  </si>
+  <si>
+    <t>Feature</t>
   </si>
 </sst>
 </file>
@@ -303,7 +340,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -338,12 +375,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -360,7 +409,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -370,8 +419,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -391,6 +455,975 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2000"/>
+              <a:t>Comparing Abnormal &amp; Normal Guideline Curve</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15544904712997831"/>
+          <c:y val="3.8681966139913801E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10890212636463922"/>
+          <c:y val="0.22664096549132282"/>
+          <c:w val="0.8600894670774849"/>
+          <c:h val="0.61920556697156504"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Both curves'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Abnormal Curve (PAR: 1.329)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:gradFill rotWithShape="1">
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="accent1">
+                        <a:satMod val="103000"/>
+                        <a:lumMod val="102000"/>
+                        <a:tint val="94000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="50000">
+                      <a:schemeClr val="accent1">
+                        <a:satMod val="110000"/>
+                        <a:lumMod val="100000"/>
+                        <a:shade val="100000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="99000"/>
+                        <a:satMod val="120000"/>
+                        <a:shade val="78000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="0"/>
+                </a:gradFill>
+                <a:ln w="9525" cap="rnd">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="63000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-2F17-45A9-88D3-39C2EABDBCEC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Both curves'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Both curves'!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>4.2465223767728215</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6400277961434484</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4805026391870144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2454609947025612</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1629159918690348</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5976674954444445</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9053559544181216</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0783402462878993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3747974263961735</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9446991235837698</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.4381000827159394</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.909231366353989</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.2006667261940969</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4821418941480484</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.41080155790966</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.1491709685010445</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.883768700097348</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.3292632076075481</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.40001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.5834976200853035</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.5589223785757591</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.2553547974771586</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.5684806127528805</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.441475566897596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-2F17-45A9-88D3-39C2EABDBCEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Both curves'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Normal Curve (PAR: 1.323)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Both curves'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Both curves'!$C$2:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>4.2465223767728215</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6400277961434484</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4805026391870144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2454609947025612</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1629159918690348</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5976674954444445</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9053559544181216</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0783402462878993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3747974263961735</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9446991235837698</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.4381000827159394</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.909231366353989</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.2006667261940969</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4821418941480484</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.41080155790966</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.1491709685010445</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.883768700097348</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.3292632076075481</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.4695111523786952</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.5834976200853035</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.5589223785757591</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.2553547974771586</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.5684806127528805</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.441475566897596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000025-2F17-45A9-88D3-39C2EABDBCEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="558243935"/>
+        <c:axId val="308806031"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="558243935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="23"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:t>Time Slot (Hour)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.41265289664878846"/>
+              <c:y val="0.91572002691349497"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="308806031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="308806031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400" b="1"/>
+                  <a:t>Unit Cost</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.7962798128494807E-2"/>
+              <c:y val="0.39294914925472652"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="558243935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19907596333067062"/>
+          <c:y val="0.15050002121559283"/>
+          <c:w val="0.62089375784548673"/>
+          <c:h val="6.249628727125045E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1021,7 +2054,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1071,6 +2104,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16107258064150398"/>
+          <c:y val="2.5889967637540454E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1079,36 +2120,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12629347802112972"/>
+          <c:y val="0.20200664237358684"/>
+          <c:w val="0.84269811861752575"/>
+          <c:h val="0.59149198583186813"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>[1]AbnormalGuidelinePricing!$B$1</c:f>
@@ -1120,30 +2151,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>[1]AbnormalGuidelinePricing!$A$2:$A$25</c:f>
@@ -1309,7 +2316,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5D38-40DE-8454-E50E3F8349F9}"/>
+              <c16:uniqueId val="{00000002-85C5-48B9-8F90-8FCE6AECD8DB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1323,6 +2330,637 @@
         </c:dLbls>
         <c:axId val="558243935"/>
         <c:axId val="308806031"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>[1]AbnormalGuidelinePricing!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Unit Cost</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>[1]AbnormalGuidelinePricing!$A$2:$A$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="24"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>23</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>[1]AbnormalGuidelinePricing!$B$2:$B$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="24"/>
+                      <c:pt idx="0">
+                        <c:v>4.2465219999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.640028</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3.4805030000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.2454610000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3.1629160000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3.5976669999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3.9053559999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>4.0783399999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>5.374797</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>4.944699</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>5.4381000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>3.9092310000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>6.2006670000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>4.4821419999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>5.4108020000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>6.1491709999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>5.883769</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>6.3292630000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3.40001</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>5.5834979999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>5.5589219999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>5.2553549999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>5.5684810000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>5.4414759999999998</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-85C5-48B9-8F90-8FCE6AECD8DB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>[1]AbnormalGuidelinePricing!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Unit Cost</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>[1]AbnormalGuidelinePricing!$A$2:$A$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="24"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>23</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>[1]AbnormalGuidelinePricing!$B$2:$B$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="24"/>
+                      <c:pt idx="0">
+                        <c:v>4.2465219999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.640028</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3.4805030000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.2454610000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3.1629160000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3.5976669999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3.9053559999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>4.0783399999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>5.374797</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>4.944699</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>5.4381000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>3.9092310000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>6.2006670000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>4.4821419999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>5.4108020000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>6.1491709999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>5.883769</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>6.3292630000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3.40001</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>5.5834979999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>5.5589219999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>5.2553549999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>5.5684810000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>5.4414759999999998</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-85C5-48B9-8F90-8FCE6AECD8DB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>[1]AbnormalGuidelinePricing!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Unit Cost</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:dPt>
+                  <c:idx val="18"/>
+                  <c:bubble3D val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000003-85C5-48B9-8F90-8FCE6AECD8DB}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>[1]AbnormalGuidelinePricing!$A$2:$A$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="24"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>23</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>[1]AbnormalGuidelinePricing!$B$2:$B$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="24"/>
+                      <c:pt idx="0">
+                        <c:v>4.2465219999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.640028</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3.4805030000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.2454610000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3.1629160000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3.5976669999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3.9053559999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>4.0783399999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>5.374797</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>4.944699</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>5.4381000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>3.9092310000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>6.2006670000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>4.4821419999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>5.4108020000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>6.1491709999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>5.883769</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>6.3292630000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3.40001</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>5.5834979999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>5.5589219999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>5.2553549999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>5.5684810000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>5.4414759999999998</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-85C5-48B9-8F90-8FCE6AECD8DB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="558243935"/>
@@ -1354,7 +2992,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1367,25 +3005,18 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100" b="1">
+                  <a:rPr lang="en-US" sz="1400" b="1">
                     <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
                   <a:t>Time</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+                  <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
                     <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t> Slot </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>(Hour)</a:t>
+                  <a:t> Slot (Hour)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1394,8 +3025,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.38935167631024087"/>
-              <c:y val="0.89296638891012414"/>
+              <c:x val="0.37207312167550932"/>
+              <c:y val="0.90032362459546922"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1406,26 +3037,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1449,7 +3060,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1497,7 +3108,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1510,20 +3121,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1200" b="1">
+                  <a:rPr lang="en-GB" sz="1400" b="1">
                     <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
                   <a:t>Unit</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1200" b="1" baseline="0">
+                  <a:rPr lang="en-GB" sz="1400" b="1" baseline="0">
                     <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
                   <a:t> Cost</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB" sz="1200" b="1">
+                <a:endParaRPr lang="en-GB" sz="1400" b="1">
                   <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:endParaRPr>
@@ -1534,8 +3145,616 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.6666636235697193E-2"/>
-              <c:y val="0.36525545957240779"/>
+              <c:x val="2.5038128611900847E-3"/>
+              <c:y val="0.34368048654112404"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="558243935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:ln w="12700">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="1">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Normal</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="1" baseline="0">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> Predictive Guideline Curve</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18062494343379493"/>
+          <c:y val="1.3201320132013201E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1278998099375509"/>
+          <c:y val="0.16897689768976898"/>
+          <c:w val="0.84028984523486283"/>
+          <c:h val="0.61033375778522736"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NormalGuidelinePricing!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unit Cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>NormalGuidelinePricing!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>NormalGuidelinePricing!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>4.2465223767728215</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6400277961434484</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4805026391870144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2454609947025612</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1629159918690348</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5976674954444445</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9053559544181216</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0783402462878993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3747974263961735</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9446991235837698</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.4381000827159394</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.909231366353989</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.2006667261940969</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4821418941480484</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.41080155790966</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.1491709685010445</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.883768700097348</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.3292632076075481</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.4695111523786952</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.5834976200853035</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.5589223785757591</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.2553547974771586</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.5684806127528805</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.441475566897596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F286-4395-8FC5-4EBC3D194E0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="557928063"/>
+        <c:axId val="478172543"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="557928063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="23"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Time Slot (Hour)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1400">
+                  <a:effectLst/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.35108403475427641"/>
+              <c:y val="0.89047893765754549"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="478172543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="478172543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400" b="1">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Unit</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400" b="1" baseline="0">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t> Cost</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1400" b="1">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.3945605937188887E-3"/>
+              <c:y val="0.33557582529906532"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1551,7 +3770,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1604,7 +3823,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558243935"/>
+        <c:crossAx val="557928063"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1631,12 +3850,9 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1740,7 +3956,549 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2256,7 +5014,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2776,16 +5534,59 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>564618</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{541AE6F3-D72C-4B96-9A66-DDAB95E6F7A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2815,27 +5616,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>288786</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{541AE6F3-D72C-4B96-9A66-DDAB95E6F7A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBB2855E-3EFC-4092-9922-027045343ED4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2850,6 +5651,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{319085BD-B00F-4925-9768-848F9A930214}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3373,7 +6212,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -4259,11 +7098,520 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A0CF10-3D3A-4A4E-97B8-BE28E977AD75}">
+  <dimension ref="B1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="34.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4">
+      <c r="C1" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1.3458522208018899</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1.3644166405368601</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="6">
+        <v>6.9694445092515096</v>
+      </c>
+      <c r="D6" s="6">
+        <v>6.9692126633708202</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2.6630390561528898</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2.6631281536651299</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2352</v>
+      </c>
+      <c r="D8" s="8">
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="6">
+        <v>3.8844453892477202</v>
+      </c>
+      <c r="D9" s="6">
+        <v>3.8328277418701502</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="7">
+        <v>5.5454099613356798</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5.4727632392754204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39234B7D-2840-4C4E-82FD-0C3AEEFA082F}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X25" sqref="X25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4.2465223767728215</v>
+      </c>
+      <c r="C2">
+        <v>4.2465223767728215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3.6400277961434484</v>
+      </c>
+      <c r="C3">
+        <v>3.6400277961434484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3.4805026391870144</v>
+      </c>
+      <c r="C4">
+        <v>3.4805026391870144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3.2454609947025612</v>
+      </c>
+      <c r="C5">
+        <v>3.2454609947025612</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3.1629159918690348</v>
+      </c>
+      <c r="C6">
+        <v>3.1629159918690348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3.5976674954444445</v>
+      </c>
+      <c r="C7">
+        <v>3.5976674954444445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>3.9053559544181216</v>
+      </c>
+      <c r="C8">
+        <v>3.9053559544181216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>4.0783402462878993</v>
+      </c>
+      <c r="C9">
+        <v>4.0783402462878993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>5.3747974263961735</v>
+      </c>
+      <c r="C10">
+        <v>5.3747974263961735</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>4.9446991235837698</v>
+      </c>
+      <c r="C11">
+        <v>4.9446991235837698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>5.4381000827159394</v>
+      </c>
+      <c r="C12">
+        <v>5.4381000827159394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>3.909231366353989</v>
+      </c>
+      <c r="C13">
+        <v>3.909231366353989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>6.2006667261940969</v>
+      </c>
+      <c r="C14">
+        <v>6.2006667261940969</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>4.4821418941480484</v>
+      </c>
+      <c r="C15">
+        <v>4.4821418941480484</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>5.41080155790966</v>
+      </c>
+      <c r="C16">
+        <v>5.41080155790966</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>6.1491709685010445</v>
+      </c>
+      <c r="C17">
+        <v>6.1491709685010445</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>5.883768700097348</v>
+      </c>
+      <c r="C18">
+        <v>5.883768700097348</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>6.3292632076075481</v>
+      </c>
+      <c r="C19">
+        <v>6.3292632076075481</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>3.40001</v>
+      </c>
+      <c r="C20">
+        <v>6.4695111523786952</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>5.5834976200853035</v>
+      </c>
+      <c r="C21">
+        <v>5.5834976200853035</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>5.5589223785757591</v>
+      </c>
+      <c r="C22">
+        <v>5.5589223785757591</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>5.2553547974771586</v>
+      </c>
+      <c r="C23">
+        <v>5.2553547974771586</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>5.5684806127528805</v>
+      </c>
+      <c r="C24">
+        <v>5.5684806127528805</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>5.441475566897596</v>
+      </c>
+      <c r="C25">
+        <v>5.441475566897596</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0B64F1-4F2B-4E4A-B2EA-DD09BC589B70}">
+  <dimension ref="B2:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.789333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.97733333333333305</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.77133333333333298</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.73733333333333295</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.78900000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.94799999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75EF9C1-8F25-C149-B769-8319BA594532}">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -4485,12 +7833,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39234B7D-2840-4C4E-82FD-0C3AEEFA082F}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41295C5-A74C-4D85-A84C-694B7FF6E993}">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4702,130 +8050,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0B64F1-4F2B-4E4A-B2EA-DD09BC589B70}">
-  <dimension ref="B2:C12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="B3:C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.789333333333333</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.94099999999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.97733333333333305</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.77133333333333298</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.73733333333333295</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.78900000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.92400000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.94799999999999995</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.94899999999999995</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40CC0932-91AD-430E-8B78-5370DA8E5815}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Input Data.xlsx
+++ b/Input Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reece\Documents\COMP3217CW2-20202021\CPS-Smart-Energy-Scheduling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A8D304-FE5B-4897-A232-000685F188E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682B772D-7A27-4910-8814-19B2F2FA55DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="7470" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{DE4D9E89-ED3E-9F4F-B454-34A6DA40E3CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{DE4D9E89-ED3E-9F4F-B454-34A6DA40E3CF}"/>
   </bookViews>
   <sheets>
     <sheet name="User &amp; Task ID" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="89">
   <si>
     <t>user1_task1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -333,6 +333,27 @@
   </si>
   <si>
     <t>Feature</t>
+  </si>
+  <si>
+    <t>Accuracy (5-fold cross validation)</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Accuracy (70/30 split)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard Deviation </t>
+  </si>
+  <si>
+    <t>Mean Squared Error</t>
+  </si>
+  <si>
+    <t>Bias (estimate)</t>
+  </si>
+  <si>
+    <t>Variance (estimate)</t>
   </si>
 </sst>
 </file>
@@ -6211,7 +6232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D33648-2EBE-814D-9D1C-C2A4EAB0BD48}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -7101,8 +7122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A0CF10-3D3A-4A4E-97B8-BE28E977AD75}">
   <dimension ref="B1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -7500,75 +7521,118 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0B64F1-4F2B-4E4A-B2EA-DD09BC589B70}">
-  <dimension ref="B2:C12"/>
+  <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="7" max="7" width="28.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:8">
       <c r="B2" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="2:3">
+      <c r="G2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
       <c r="B3" t="s">
         <v>60</v>
       </c>
       <c r="C3" s="3">
         <v>0.789333333333333</v>
       </c>
-    </row>
-    <row r="4" spans="2:3">
+      <c r="G3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
       <c r="B4" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="3">
         <v>0.94099999999999995</v>
       </c>
-    </row>
-    <row r="5" spans="2:3">
+      <c r="G4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
       <c r="B5" t="s">
         <v>62</v>
       </c>
       <c r="C5" s="3">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="6" spans="2:3">
+      <c r="G5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6" t="s">
         <v>63</v>
       </c>
       <c r="C6" s="3">
         <v>0.97733333333333305</v>
       </c>
-    </row>
-    <row r="7" spans="2:3">
+      <c r="G6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
       <c r="B7" t="s">
         <v>64</v>
       </c>
       <c r="C7" s="3">
         <v>0.77133333333333298</v>
       </c>
-    </row>
-    <row r="8" spans="2:3">
+      <c r="G7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8" t="s">
         <v>65</v>
       </c>
       <c r="C8" s="3">
         <v>0.73733333333333295</v>
       </c>
-    </row>
-    <row r="9" spans="2:3">
+      <c r="G8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
       <c r="B9" t="s">
         <v>66</v>
       </c>
@@ -7576,7 +7640,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:8">
       <c r="B10" t="s">
         <v>67</v>
       </c>
@@ -7584,7 +7648,7 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:8">
       <c r="B11" t="s">
         <v>68</v>
       </c>
@@ -7592,7 +7656,7 @@
         <v>0.94799999999999995</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:8">
       <c r="B12" t="s">
         <v>69</v>
       </c>
